--- a/excel文書/テスト文書２.xlsx
+++ b/excel文書/テスト文書２.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>hhhh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かえてみた</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -403,55 +407,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>

--- a/excel文書/テスト文書２.xlsx
+++ b/excel文書/テスト文書２.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>お試しテスト文書</t>
     <rPh sb="1" eb="2">
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>かえてみた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つながるか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -410,7 +414,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -441,6 +445,9 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
